--- a/biology/Zoologie/Conus_corallinus/Conus_corallinus.xlsx
+++ b/biology/Zoologie/Conus_corallinus/Conus_corallinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus corallinus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 15 mm et 37,5 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de Okinawa, au Japon et en Nouvelle-Calédonie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans une zone allant de Taïwan et des Philippines à la Nouvelle-Calédonie et aux îles Salomon, à l'exclusion du Vanuatu. Il s'agit d'une espèce à large aire de répartition et elle est commune dans l'ensemble de son aire de répartition. Il n'y a pas de menaces majeures connues, elle est donc classée dans la catégorie préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -573,20 +587,131 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans une zone allant de Taïwan et des Philippines à la Nouvelle-Calédonie et aux îles Salomon, à l'exclusion du Vanuatu. Il s'agit d'une espèce à large aire de répartition et elle est commune dans l'ensemble de son aire de répartition. Il n'y a pas de menaces majeures connues, elle est donc classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_corallinus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_corallinus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus corallinus a été décrite pour la première fois en 1847 par le zoologiste français Louis Charles Kiener (1799-1881) dans la publication intitulée « Spécies général et iconographie des coquilles vivantes Vol 2 »[2],[3].
-Synonymes
-Conus (Splinoconus) corallinus Kiener, 1847 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus corallinus a été décrite pour la première fois en 1847 par le zoologiste français Louis Charles Kiener (1799-1881) dans la publication intitulée « Spécies général et iconographie des coquilles vivantes Vol 2 »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_corallinus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_corallinus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Splinoconus) corallinus Kiener, 1847 · appellation alternative
 Isoconus corallinus (Kiener, 1847) · non accepté
 Kioconus (Isoconus) corallinus (Kiener, 1847) · non accepté
-Leporiconus corallinus (Kiener, 1847) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus corallinus dans les principales bases sont les suivants :
+Leporiconus corallinus (Kiener, 1847) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_corallinus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_corallinus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus corallinus dans les principales bases sont les suivants :
 BOLD : 650293 - CoL : XX83 - GBIF : 5857096 - iNaturalist : 431922 - IRMNG : 11704015 - NCBI : 699526 - TAXREF : 137931 - UICN : 192416 - WoRMS : 426464
 </t>
         </is>
